--- a/data/league_data/spain/21/spain_misc.xlsx
+++ b/data/league_data/spain/21/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B8C924-B480-3F49-9000-D8848036544D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C2EED-ABC3-2843-9B6F-BA878E9881C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="603">
   <si>
     <t>Rk</t>
   </si>
@@ -1537,9 +1537,6 @@
     <t>Facundo Pellistri</t>
   </si>
   <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
     <t>Eden Hazard</t>
   </si>
   <si>
@@ -1582,9 +1579,6 @@
     <t>Kenan Kodro</t>
   </si>
   <si>
-    <t>Javi Martínez</t>
-  </si>
-  <si>
     <t>Okay Yokuşlu</t>
   </si>
   <si>
@@ -1820,6 +1814,21 @@
   </si>
   <si>
     <t>Eugeni Valderrama</t>
+  </si>
+  <si>
+    <t>Jota Peleteiro</t>
+  </si>
+  <si>
+    <t>Nacho Iglesias</t>
+  </si>
+  <si>
+    <t>Raúl García Escudero</t>
+  </si>
+  <si>
+    <t>Rodrigo Sanchez</t>
+  </si>
+  <si>
+    <t>Javi Martínez Calvo</t>
   </si>
 </sst>
 </file>
@@ -2686,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
+      <selection activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14903,7 +14912,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>247</v>
+        <v>599</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>32</v>
@@ -17635,7 +17644,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>287</v>
+        <v>600</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>32</v>
@@ -21255,7 +21264,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>338</v>
+        <v>598</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>32</v>
@@ -32775,7 +32784,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>505</v>
+        <v>601</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>32</v>
@@ -32849,7 +32858,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>25</v>
@@ -32923,7 +32932,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>32</v>
@@ -32997,7 +33006,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>73</v>
@@ -33071,7 +33080,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>114</v>
@@ -33145,10 +33154,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>56</v>
@@ -33219,7 +33228,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>32</v>
@@ -33367,7 +33376,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>32</v>
@@ -33441,7 +33450,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>356</v>
@@ -33515,7 +33524,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>65</v>
@@ -33589,7 +33598,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>65</v>
@@ -33663,7 +33672,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>32</v>
@@ -33737,7 +33746,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>70</v>
@@ -33811,7 +33820,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>486</v>
@@ -33885,7 +33894,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>32</v>
@@ -33959,7 +33968,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>356</v>
@@ -34033,7 +34042,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>32</v>
@@ -34107,7 +34116,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>32</v>
@@ -34179,7 +34188,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>32</v>
@@ -34253,10 +34262,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>26</v>
@@ -34325,7 +34334,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>32</v>
@@ -34399,7 +34408,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>32</v>
@@ -34547,7 +34556,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>32</v>
@@ -34621,7 +34630,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>32</v>
@@ -34695,7 +34704,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>32</v>
@@ -34769,7 +34778,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>32</v>
@@ -34843,7 +34852,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>32</v>
@@ -34917,7 +34926,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>32</v>
@@ -34991,7 +35000,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>32</v>
@@ -35065,7 +35074,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>51</v>
@@ -35139,7 +35148,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>460</v>
@@ -35213,7 +35222,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>32</v>
@@ -35287,7 +35296,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>32</v>
@@ -35361,7 +35370,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>65</v>
@@ -35435,7 +35444,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>32</v>
@@ -35509,7 +35518,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>32</v>
@@ -35581,7 +35590,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>65</v>
@@ -35655,7 +35664,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>32</v>
@@ -35729,7 +35738,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>97</v>
@@ -35803,7 +35812,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>32</v>
@@ -35877,7 +35886,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>68</v>
@@ -35951,7 +35960,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>32</v>
@@ -36025,7 +36034,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>32</v>
@@ -36099,7 +36108,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>65</v>
@@ -36247,7 +36256,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>32</v>
@@ -36321,7 +36330,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>32</v>
@@ -36393,7 +36402,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>32</v>
@@ -36467,7 +36476,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>32</v>
@@ -36541,7 +36550,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>32</v>
@@ -36615,7 +36624,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>32</v>
@@ -36689,7 +36698,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>32</v>
@@ -36763,7 +36772,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>32</v>
@@ -36835,7 +36844,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>32</v>
@@ -36909,7 +36918,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>68</v>
@@ -36983,7 +36992,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>32</v>
@@ -37057,7 +37066,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>32</v>
@@ -37131,7 +37140,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>32</v>
@@ -37205,7 +37214,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>32</v>
@@ -37267,7 +37276,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>32</v>
@@ -37341,10 +37350,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>118</v>
@@ -37415,7 +37424,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>32</v>
@@ -37489,7 +37498,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>32</v>
@@ -37563,7 +37572,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>32</v>
@@ -37637,7 +37646,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>186</v>
@@ -37711,7 +37720,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>65</v>
@@ -37785,10 +37794,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>66</v>
@@ -37859,7 +37868,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>73</v>
@@ -37933,7 +37942,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>360</v>
@@ -38007,7 +38016,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>32</v>
@@ -38079,13 +38088,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>45</v>
@@ -38151,7 +38160,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>32</v>
@@ -38223,7 +38232,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>97</v>
@@ -38297,7 +38306,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>32</v>
@@ -38371,7 +38380,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>97</v>
@@ -38445,7 +38454,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>65</v>
@@ -38517,7 +38526,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>32</v>
@@ -38591,7 +38600,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>32</v>
@@ -38665,7 +38674,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>32</v>
@@ -38739,7 +38748,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>65</v>
@@ -38813,7 +38822,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>51</v>
@@ -38887,7 +38896,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>32</v>
@@ -38961,7 +38970,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>32</v>
@@ -39035,7 +39044,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>32</v>
@@ -39109,10 +39118,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>41</v>
@@ -39181,7 +39190,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>345</v>
@@ -39255,7 +39264,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>32</v>
@@ -39329,7 +39338,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>32</v>
@@ -39403,7 +39412,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>32</v>
@@ -39477,7 +39486,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>32</v>
@@ -39551,7 +39560,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>32</v>

--- a/data/league_data/spain/21/spain_misc.xlsx
+++ b/data/league_data/spain/21/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257C2EED-ABC3-2843-9B6F-BA878E9881C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB88CF-CA0F-B84F-A963-08301A06EE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -949,9 +949,6 @@
     <t>João Félix</t>
   </si>
   <si>
-    <t>Sergio Álvarez</t>
-  </si>
-  <si>
     <t>Martin Agirregabiria</t>
   </si>
   <si>
@@ -1829,6 +1826,9 @@
   </si>
   <si>
     <t>Javi Martínez Calvo</t>
+  </si>
+  <si>
+    <t>Sergio Álvarez Diaz</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="B423" sqref="B423"/>
+    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14912,7 +14912,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>32</v>
@@ -17644,7 +17644,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>32</v>
@@ -19194,7 +19194,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>309</v>
+        <v>602</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>32</v>
@@ -19268,7 +19268,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>32</v>
@@ -19342,7 +19342,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>32</v>
@@ -19416,7 +19416,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>65</v>
@@ -19490,7 +19490,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>32</v>
@@ -19564,7 +19564,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>32</v>
@@ -19638,7 +19638,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>32</v>
@@ -19712,7 +19712,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>32</v>
@@ -19786,7 +19786,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>263</v>
@@ -19860,10 +19860,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>66</v>
@@ -19934,7 +19934,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>32</v>
@@ -20008,7 +20008,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>73</v>
@@ -20082,7 +20082,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>32</v>
@@ -20156,7 +20156,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>68</v>
@@ -20230,7 +20230,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>123</v>
@@ -20304,7 +20304,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>70</v>
@@ -20378,7 +20378,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>32</v>
@@ -20452,7 +20452,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>32</v>
@@ -20526,7 +20526,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>32</v>
@@ -20598,7 +20598,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>32</v>
@@ -20672,7 +20672,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>32</v>
@@ -20746,7 +20746,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>32</v>
@@ -20820,7 +20820,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>32</v>
@@ -20894,7 +20894,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>32</v>
@@ -20968,7 +20968,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>32</v>
@@ -21042,7 +21042,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>32</v>
@@ -21116,7 +21116,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>32</v>
@@ -21190,7 +21190,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>32</v>
@@ -21264,7 +21264,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>32</v>
@@ -21338,7 +21338,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>32</v>
@@ -21412,7 +21412,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>32</v>
@@ -21486,7 +21486,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>32</v>
@@ -21560,7 +21560,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>80</v>
@@ -21634,7 +21634,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>32</v>
@@ -21708,10 +21708,10 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C258" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D258" s="3" t="s">
         <v>118</v>
@@ -21782,7 +21782,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>68</v>
@@ -21856,7 +21856,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>32</v>
@@ -21930,7 +21930,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>32</v>
@@ -22004,7 +22004,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>32</v>
@@ -22078,7 +22078,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>32</v>
@@ -22152,7 +22152,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>73</v>
@@ -22226,7 +22226,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>193</v>
@@ -22300,7 +22300,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>73</v>
@@ -22374,7 +22374,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>170</v>
@@ -22448,10 +22448,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>355</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>56</v>
@@ -22522,7 +22522,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>32</v>
@@ -22596,7 +22596,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>32</v>
@@ -22670,10 +22670,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>44</v>
@@ -22744,7 +22744,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>32</v>
@@ -22818,7 +22818,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>32</v>
@@ -22892,7 +22892,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>32</v>
@@ -22966,7 +22966,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>32</v>
@@ -23040,7 +23040,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>32</v>
@@ -23114,7 +23114,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>32</v>
@@ -23188,7 +23188,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>47</v>
@@ -23262,10 +23262,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>66</v>
@@ -23410,7 +23410,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>32</v>
@@ -23484,7 +23484,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>32</v>
@@ -23558,7 +23558,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>65</v>
@@ -23632,7 +23632,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>97</v>
@@ -23706,10 +23706,10 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>44</v>
@@ -23780,7 +23780,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>32</v>
@@ -23854,7 +23854,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>123</v>
@@ -23928,7 +23928,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>32</v>
@@ -24002,7 +24002,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>68</v>
@@ -24076,7 +24076,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>32</v>
@@ -24150,7 +24150,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>32</v>
@@ -24224,7 +24224,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>77</v>
@@ -24298,7 +24298,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>70</v>
@@ -24372,10 +24372,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>44</v>
@@ -24446,7 +24446,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>65</v>
@@ -24520,7 +24520,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>32</v>
@@ -24592,7 +24592,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>32</v>
@@ -24666,7 +24666,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>65</v>
@@ -24740,7 +24740,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>32</v>
@@ -24814,7 +24814,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>70</v>
@@ -24888,7 +24888,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>97</v>
@@ -24962,7 +24962,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>32</v>
@@ -25036,7 +25036,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>70</v>
@@ -25110,7 +25110,7 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>275</v>
@@ -25184,7 +25184,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>275</v>
@@ -25258,7 +25258,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>51</v>
@@ -25332,7 +25332,7 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>32</v>
@@ -25406,7 +25406,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>32</v>
@@ -25480,7 +25480,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>32</v>
@@ -25554,7 +25554,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>65</v>
@@ -25628,7 +25628,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>32</v>
@@ -25702,10 +25702,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>41</v>
@@ -25776,7 +25776,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>97</v>
@@ -25850,7 +25850,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>68</v>
@@ -25924,7 +25924,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>32</v>
@@ -25998,7 +25998,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>70</v>
@@ -26072,7 +26072,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>51</v>
@@ -26146,7 +26146,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>32</v>
@@ -26220,7 +26220,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>25</v>
@@ -26294,7 +26294,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>65</v>
@@ -26368,7 +26368,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>32</v>
@@ -26442,7 +26442,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>70</v>
@@ -26516,7 +26516,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>32</v>
@@ -26590,7 +26590,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>32</v>
@@ -26664,7 +26664,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>32</v>
@@ -26738,7 +26738,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>32</v>
@@ -26812,7 +26812,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>32</v>
@@ -26886,7 +26886,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>32</v>
@@ -26960,7 +26960,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>32</v>
@@ -27034,10 +27034,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>56</v>
@@ -27108,7 +27108,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>32</v>
@@ -27182,7 +27182,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>65</v>
@@ -27256,7 +27256,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>32</v>
@@ -27330,7 +27330,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>32</v>
@@ -27404,7 +27404,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>32</v>
@@ -27478,7 +27478,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>51</v>
@@ -27552,7 +27552,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>32</v>
@@ -27626,7 +27626,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>32</v>
@@ -27700,7 +27700,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>80</v>
@@ -27774,7 +27774,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>47</v>
@@ -27846,7 +27846,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>32</v>
@@ -27918,7 +27918,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>32</v>
@@ -27992,7 +27992,7 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>70</v>
@@ -28066,7 +28066,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>32</v>
@@ -28140,7 +28140,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>244</v>
@@ -28214,7 +28214,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>170</v>
@@ -28288,7 +28288,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>51</v>
@@ -28362,7 +28362,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>32</v>
@@ -28436,7 +28436,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>80</v>
@@ -28510,7 +28510,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>32</v>
@@ -28584,7 +28584,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>32</v>
@@ -28658,7 +28658,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>32</v>
@@ -28732,7 +28732,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>32</v>
@@ -28806,7 +28806,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>32</v>
@@ -28880,7 +28880,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>32</v>
@@ -28954,7 +28954,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>32</v>
@@ -29028,7 +29028,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>32</v>
@@ -29102,7 +29102,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>85</v>
@@ -29176,7 +29176,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>32</v>
@@ -29250,7 +29250,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>275</v>
@@ -29324,7 +29324,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>32</v>
@@ -29398,7 +29398,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>32</v>
@@ -29472,10 +29472,10 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>41</v>
@@ -29546,7 +29546,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>123</v>
@@ -29620,10 +29620,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>41</v>
@@ -29694,7 +29694,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>32</v>
@@ -29768,7 +29768,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>32</v>
@@ -29842,7 +29842,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>32</v>
@@ -29916,7 +29916,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>123</v>
@@ -29990,7 +29990,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>68</v>
@@ -30064,7 +30064,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>65</v>
@@ -30138,7 +30138,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>32</v>
@@ -30212,7 +30212,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>65</v>
@@ -30286,7 +30286,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>32</v>
@@ -30360,7 +30360,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>32</v>
@@ -30434,7 +30434,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>32</v>
@@ -30506,7 +30506,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>65</v>
@@ -30578,7 +30578,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>32</v>
@@ -30652,7 +30652,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>97</v>
@@ -30726,7 +30726,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>70</v>
@@ -30800,7 +30800,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>70</v>
@@ -30874,7 +30874,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>170</v>
@@ -30948,7 +30948,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>97</v>
@@ -31010,7 +31010,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>70</v>
@@ -31084,7 +31084,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>47</v>
@@ -31158,7 +31158,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>32</v>
@@ -31232,7 +31232,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>32</v>
@@ -31306,7 +31306,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>68</v>
@@ -31380,7 +31380,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>32</v>
@@ -31454,7 +31454,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>70</v>
@@ -31526,10 +31526,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>41</v>
@@ -31600,7 +31600,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>68</v>
@@ -31674,10 +31674,10 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C393" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D393" s="3" t="s">
         <v>118</v>
@@ -31748,10 +31748,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>44</v>
@@ -31822,7 +31822,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>32</v>
@@ -31896,7 +31896,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>32</v>
@@ -31970,7 +31970,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>73</v>
@@ -32044,7 +32044,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>32</v>
@@ -32118,7 +32118,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>32</v>
@@ -32192,7 +32192,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>32</v>
@@ -32266,7 +32266,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>32</v>
@@ -32340,7 +32340,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>32</v>
@@ -32414,7 +32414,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>32</v>
@@ -32488,7 +32488,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>32</v>
@@ -32562,7 +32562,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>32</v>
@@ -32636,7 +32636,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>32</v>
@@ -32710,7 +32710,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>73</v>
@@ -32784,7 +32784,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>32</v>
@@ -32858,7 +32858,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>25</v>
@@ -32932,7 +32932,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>32</v>
@@ -33006,7 +33006,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>73</v>
@@ -33080,7 +33080,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>114</v>
@@ -33154,10 +33154,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>56</v>
@@ -33228,7 +33228,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>32</v>
@@ -33376,7 +33376,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>32</v>
@@ -33450,10 +33450,10 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>66</v>
@@ -33524,7 +33524,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>65</v>
@@ -33598,7 +33598,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>65</v>
@@ -33672,7 +33672,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>32</v>
@@ -33746,7 +33746,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>70</v>
@@ -33820,10 +33820,10 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>66</v>
@@ -33894,7 +33894,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>32</v>
@@ -33968,10 +33968,10 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>41</v>
@@ -34042,7 +34042,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>32</v>
@@ -34116,7 +34116,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>32</v>
@@ -34188,7 +34188,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>32</v>
@@ -34262,10 +34262,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>26</v>
@@ -34334,7 +34334,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>32</v>
@@ -34408,7 +34408,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>32</v>
@@ -34482,10 +34482,10 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>41</v>
@@ -34556,7 +34556,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>32</v>
@@ -34630,7 +34630,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>32</v>
@@ -34704,7 +34704,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>32</v>
@@ -34778,7 +34778,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>32</v>
@@ -34852,7 +34852,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>32</v>
@@ -34926,7 +34926,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>32</v>
@@ -35000,7 +35000,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>32</v>
@@ -35074,7 +35074,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>51</v>
@@ -35148,10 +35148,10 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>41</v>
@@ -35222,7 +35222,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>32</v>
@@ -35296,7 +35296,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>32</v>
@@ -35370,7 +35370,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>65</v>
@@ -35444,7 +35444,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>32</v>
@@ -35518,7 +35518,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>32</v>
@@ -35590,7 +35590,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>65</v>
@@ -35664,7 +35664,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>32</v>
@@ -35738,7 +35738,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>97</v>
@@ -35812,7 +35812,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>32</v>
@@ -35886,7 +35886,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>68</v>
@@ -35960,7 +35960,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>32</v>
@@ -36034,7 +36034,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>32</v>
@@ -36108,7 +36108,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>65</v>
@@ -36182,7 +36182,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>275</v>
@@ -36256,7 +36256,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>32</v>
@@ -36330,7 +36330,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>32</v>
@@ -36402,7 +36402,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>32</v>
@@ -36476,7 +36476,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>32</v>
@@ -36550,7 +36550,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>32</v>
@@ -36624,7 +36624,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>32</v>
@@ -36698,7 +36698,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>32</v>
@@ -36772,7 +36772,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>32</v>
@@ -36844,7 +36844,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>32</v>
@@ -36918,7 +36918,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>68</v>
@@ -36992,7 +36992,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>32</v>
@@ -37066,7 +37066,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>32</v>
@@ -37140,7 +37140,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>32</v>
@@ -37214,7 +37214,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>32</v>
@@ -37276,7 +37276,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>32</v>
@@ -37350,10 +37350,10 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="C470" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="D470" s="3" t="s">
         <v>118</v>
@@ -37424,7 +37424,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>32</v>
@@ -37498,7 +37498,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>32</v>
@@ -37572,7 +37572,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>32</v>
@@ -37646,7 +37646,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>186</v>
@@ -37720,7 +37720,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>65</v>
@@ -37794,10 +37794,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>66</v>
@@ -37868,7 +37868,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>73</v>
@@ -37942,10 +37942,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>41</v>
@@ -38016,7 +38016,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>32</v>
@@ -38088,13 +38088,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>45</v>
@@ -38160,7 +38160,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>32</v>
@@ -38232,7 +38232,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>97</v>
@@ -38306,7 +38306,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>32</v>
@@ -38380,7 +38380,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>97</v>
@@ -38454,7 +38454,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>65</v>
@@ -38526,7 +38526,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>32</v>
@@ -38600,7 +38600,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>32</v>
@@ -38674,7 +38674,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>32</v>
@@ -38748,7 +38748,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>65</v>
@@ -38822,7 +38822,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>51</v>
@@ -38896,7 +38896,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>32</v>
@@ -38970,7 +38970,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>32</v>
@@ -39044,7 +39044,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>32</v>
@@ -39118,10 +39118,10 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>41</v>
@@ -39190,10 +39190,10 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D495" s="3" t="s">
         <v>118</v>
@@ -39264,7 +39264,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>32</v>
@@ -39338,7 +39338,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>32</v>
@@ -39412,7 +39412,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>32</v>
@@ -39486,7 +39486,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>32</v>
@@ -39560,7 +39560,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>32</v>

--- a/data/league_data/spain/21/spain_misc.xlsx
+++ b/data/league_data/spain/21/spain_misc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/spain/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCB88CF-CA0F-B84F-A963-08301A06EE91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D1522B-5757-7444-881C-AF5FB4C839C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -229,9 +229,6 @@
     <t>fr FRA</t>
   </si>
   <si>
-    <t>Emerson</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1829,6 +1826,9 @@
   </si>
   <si>
     <t>Sergio Álvarez Diaz</t>
+  </si>
+  <si>
+    <t>Emerson Royal</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4274,16 +4274,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="3">
         <v>21</v>
@@ -4348,10 +4348,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>41</v>
@@ -4422,7 +4422,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>68</v>
@@ -4431,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="3">
         <v>21</v>
@@ -4496,16 +4496,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>48</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F25" s="3">
         <v>31</v>
@@ -4570,16 +4570,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F26" s="3">
         <v>29</v>
@@ -4642,7 +4642,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>32</v>
@@ -4716,7 +4716,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>32</v>
@@ -4788,7 +4788,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>32</v>
@@ -4862,10 +4862,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>44</v>
@@ -4936,10 +4936,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>44</v>
@@ -5010,7 +5010,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>32</v>
@@ -5019,7 +5019,7 @@
         <v>44</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F32" s="3">
         <v>31</v>
@@ -5084,7 +5084,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>68</v>
@@ -5158,10 +5158,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>41</v>
@@ -5232,7 +5232,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>32</v>
@@ -5306,7 +5306,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>65</v>
@@ -5315,7 +5315,7 @@
         <v>26</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F36" s="3">
         <v>27</v>
@@ -5378,7 +5378,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>32</v>
@@ -5452,16 +5452,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" s="3">
         <v>26</v>
@@ -5524,7 +5524,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>32</v>
@@ -5533,7 +5533,7 @@
         <v>56</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F39" s="3">
         <v>32</v>
@@ -5598,7 +5598,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>32</v>
@@ -5607,7 +5607,7 @@
         <v>41</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F40" s="3">
         <v>23</v>
@@ -5672,7 +5672,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>65</v>
@@ -5681,7 +5681,7 @@
         <v>41</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F41" s="3">
         <v>26</v>
@@ -5746,7 +5746,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>32</v>
@@ -5755,7 +5755,7 @@
         <v>41</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F42" s="3">
         <v>26</v>
@@ -5820,7 +5820,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>32</v>
@@ -5829,7 +5829,7 @@
         <v>44</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F43" s="3">
         <v>25</v>
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>32</v>
@@ -5903,7 +5903,7 @@
         <v>44</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="3">
         <v>34</v>
@@ -5968,7 +5968,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>32</v>
@@ -6042,16 +6042,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="3">
         <v>27</v>
@@ -6116,10 +6116,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>26</v>
@@ -6188,7 +6188,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>32</v>
@@ -6197,7 +6197,7 @@
         <v>44</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48" s="3">
         <v>28</v>
@@ -6262,7 +6262,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>68</v>
@@ -6336,10 +6336,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>114</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>41</v>
@@ -6410,7 +6410,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>32</v>
@@ -6419,7 +6419,7 @@
         <v>41</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F51" s="3">
         <v>23</v>
@@ -6484,7 +6484,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>51</v>
@@ -6558,13 +6558,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>45</v>
@@ -6632,16 +6632,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F54" s="3">
         <v>29</v>
@@ -6706,7 +6706,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>68</v>
@@ -6780,7 +6780,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>32</v>
@@ -6789,7 +6789,7 @@
         <v>26</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F56" s="3">
         <v>28</v>
@@ -6852,16 +6852,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F57" s="3">
         <v>28</v>
@@ -6926,16 +6926,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F58" s="3">
         <v>25</v>
@@ -7000,7 +7000,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>65</v>
@@ -7009,7 +7009,7 @@
         <v>56</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F59" s="3">
         <v>24</v>
@@ -7074,16 +7074,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F60" s="3">
         <v>23</v>
@@ -7148,16 +7148,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F61" s="3">
         <v>23</v>
@@ -7222,7 +7222,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>32</v>
@@ -7296,7 +7296,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>68</v>
@@ -7305,7 +7305,7 @@
         <v>44</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" s="3">
         <v>27</v>
@@ -7370,7 +7370,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>32</v>
@@ -7444,7 +7444,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>65</v>
@@ -7453,7 +7453,7 @@
         <v>41</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" s="3">
         <v>30</v>
@@ -7518,16 +7518,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F66" s="3">
         <v>26</v>
@@ -7592,10 +7592,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>44</v>
@@ -7666,7 +7666,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>32</v>
@@ -7675,7 +7675,7 @@
         <v>44</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F68" s="3">
         <v>33</v>
@@ -7740,7 +7740,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>32</v>
@@ -7814,7 +7814,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>65</v>
@@ -7823,7 +7823,7 @@
         <v>56</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F70" s="3">
         <v>26</v>
@@ -7888,16 +7888,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F71" s="3">
         <v>27</v>
@@ -7962,16 +7962,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="3">
         <v>27</v>
@@ -8036,7 +8036,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>32</v>
@@ -8045,7 +8045,7 @@
         <v>26</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F73" s="3">
         <v>29</v>
@@ -8110,10 +8110,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>44</v>
@@ -8184,16 +8184,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F75" s="3">
         <v>28</v>
@@ -8258,7 +8258,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>68</v>
@@ -8332,7 +8332,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>32</v>
@@ -8341,7 +8341,7 @@
         <v>44</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F77" s="3">
         <v>29</v>
@@ -8406,16 +8406,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F78" s="3">
         <v>33</v>
@@ -8480,7 +8480,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>32</v>
@@ -8489,7 +8489,7 @@
         <v>44</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F79" s="3">
         <v>27</v>
@@ -8554,7 +8554,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>32</v>
@@ -8628,7 +8628,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>32</v>
@@ -8702,13 +8702,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>39</v>
@@ -8776,7 +8776,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>32</v>
@@ -8850,16 +8850,16 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F84" s="3">
         <v>33</v>
@@ -8924,13 +8924,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>58</v>
@@ -8998,7 +8998,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>32</v>
@@ -9072,7 +9072,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>32</v>
@@ -9146,7 +9146,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>32</v>
@@ -9155,7 +9155,7 @@
         <v>26</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F88" s="3">
         <v>29</v>
@@ -9218,7 +9218,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>32</v>
@@ -9292,16 +9292,16 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F90" s="3">
         <v>29</v>
@@ -9366,7 +9366,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>32</v>
@@ -9438,10 +9438,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>56</v>
@@ -9512,16 +9512,16 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F93" s="3">
         <v>29</v>
@@ -9586,7 +9586,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>65</v>
@@ -9660,7 +9660,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>68</v>
@@ -9734,10 +9734,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>44</v>
@@ -9808,7 +9808,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>32</v>
@@ -9882,7 +9882,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>32</v>
@@ -9891,7 +9891,7 @@
         <v>66</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F98" s="3">
         <v>33</v>
@@ -9956,16 +9956,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C99" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F99" s="3">
         <v>28</v>
@@ -10030,10 +10030,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>44</v>
@@ -10104,7 +10104,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>32</v>
@@ -10113,7 +10113,7 @@
         <v>56</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F101" s="3">
         <v>24</v>
@@ -10178,7 +10178,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>32</v>
@@ -10252,7 +10252,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>32</v>
@@ -10326,7 +10326,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>32</v>
@@ -10335,7 +10335,7 @@
         <v>41</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F104" s="3">
         <v>26</v>
@@ -10400,7 +10400,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>65</v>
@@ -10474,7 +10474,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>32</v>
@@ -10483,7 +10483,7 @@
         <v>48</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F106" s="3">
         <v>30</v>
@@ -10548,16 +10548,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>179</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F107" s="3">
         <v>28</v>
@@ -10622,7 +10622,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>32</v>
@@ -10696,7 +10696,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>32</v>
@@ -10770,7 +10770,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>32</v>
@@ -10844,16 +10844,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F111" s="3">
         <v>25</v>
@@ -10918,7 +10918,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>32</v>
@@ -10992,10 +10992,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>56</v>
@@ -11066,16 +11066,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F114" s="3">
         <v>24</v>
@@ -11140,7 +11140,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>65</v>
@@ -11149,7 +11149,7 @@
         <v>44</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F115" s="3">
         <v>28</v>
@@ -11214,10 +11214,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>41</v>
@@ -11288,10 +11288,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>193</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>48</v>
@@ -11362,16 +11362,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F118" s="3">
         <v>23</v>
@@ -11436,16 +11436,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F119" s="3">
         <v>22</v>
@@ -11510,16 +11510,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F120" s="3">
         <v>26</v>
@@ -11584,16 +11584,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F121" s="3">
         <v>23</v>
@@ -11658,13 +11658,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>37</v>
@@ -11732,13 +11732,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>52</v>
@@ -11806,7 +11806,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>32</v>
@@ -11815,7 +11815,7 @@
         <v>44</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F124" s="3">
         <v>30</v>
@@ -11880,7 +11880,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>32</v>
@@ -11889,7 +11889,7 @@
         <v>44</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F125" s="3">
         <v>30</v>
@@ -11954,7 +11954,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>32</v>
@@ -11963,7 +11963,7 @@
         <v>26</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F126" s="3">
         <v>31</v>
@@ -12026,7 +12026,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>32</v>
@@ -12035,7 +12035,7 @@
         <v>44</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F127" s="3">
         <v>33</v>
@@ -12100,16 +12100,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F128" s="3">
         <v>32</v>
@@ -12174,7 +12174,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>32</v>
@@ -12183,7 +12183,7 @@
         <v>56</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F129" s="3">
         <v>26</v>
@@ -12248,7 +12248,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>68</v>
@@ -12322,7 +12322,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>32</v>
@@ -12331,7 +12331,7 @@
         <v>56</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F131" s="3">
         <v>29</v>
@@ -12396,7 +12396,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>32</v>
@@ -12405,7 +12405,7 @@
         <v>56</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F132" s="3">
         <v>34</v>
@@ -12470,16 +12470,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F133" s="3">
         <v>23</v>
@@ -12544,7 +12544,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>32</v>
@@ -12618,13 +12618,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>52</v>
@@ -12692,7 +12692,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>51</v>
@@ -12701,7 +12701,7 @@
         <v>41</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F136" s="3">
         <v>22</v>
@@ -12766,7 +12766,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>32</v>
@@ -12840,13 +12840,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>30</v>
@@ -12914,7 +12914,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>32</v>
@@ -12923,7 +12923,7 @@
         <v>41</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F139" s="3">
         <v>29</v>
@@ -12988,7 +12988,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>32</v>
@@ -12997,7 +12997,7 @@
         <v>66</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F140" s="3">
         <v>28</v>
@@ -13062,7 +13062,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>32</v>
@@ -13071,7 +13071,7 @@
         <v>44</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F141" s="3">
         <v>31</v>
@@ -13136,7 +13136,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>32</v>
@@ -13210,16 +13210,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>221</v>
-      </c>
       <c r="D143" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F143" s="3">
         <v>34</v>
@@ -13284,7 +13284,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>32</v>
@@ -13358,16 +13358,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F145" s="3">
         <v>21</v>
@@ -13432,16 +13432,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F146" s="3">
         <v>24</v>
@@ -13506,10 +13506,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>41</v>
@@ -13580,7 +13580,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>32</v>
@@ -13654,7 +13654,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>32</v>
@@ -13728,13 +13728,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>35</v>
@@ -13802,7 +13802,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>32</v>
@@ -13876,7 +13876,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>32</v>
@@ -13950,7 +13950,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>68</v>
@@ -13959,7 +13959,7 @@
         <v>44</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F153" s="3">
         <v>23</v>
@@ -14024,7 +14024,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>32</v>
@@ -14098,7 +14098,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>32</v>
@@ -14172,7 +14172,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>32</v>
@@ -14181,7 +14181,7 @@
         <v>44</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F156" s="3">
         <v>24</v>
@@ -14246,16 +14246,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F157" s="3">
         <v>31</v>
@@ -14320,10 +14320,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>44</v>
@@ -14394,7 +14394,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>32</v>
@@ -14468,7 +14468,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>32</v>
@@ -14542,7 +14542,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>32</v>
@@ -14616,7 +14616,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>32</v>
@@ -14690,10 +14690,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>44</v>
@@ -14764,16 +14764,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F164" s="3">
         <v>27</v>
@@ -14838,16 +14838,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F165" s="3">
         <v>23</v>
@@ -14912,7 +14912,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>32</v>
@@ -14986,7 +14986,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>32</v>
@@ -14995,7 +14995,7 @@
         <v>44</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F167" s="3">
         <v>20</v>
@@ -15060,7 +15060,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>32</v>
@@ -15132,7 +15132,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>32</v>
@@ -15141,7 +15141,7 @@
         <v>66</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F169" s="3">
         <v>27</v>
@@ -15206,10 +15206,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>56</v>
@@ -15280,7 +15280,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>32</v>
@@ -15354,7 +15354,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>32</v>
@@ -15363,7 +15363,7 @@
         <v>44</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F172" s="3">
         <v>24</v>
@@ -15428,7 +15428,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>32</v>
@@ -15502,7 +15502,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>32</v>
@@ -15576,7 +15576,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>32</v>
@@ -15650,7 +15650,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>32</v>
@@ -15659,7 +15659,7 @@
         <v>41</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F176" s="3">
         <v>27</v>
@@ -15724,13 +15724,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>37</v>
@@ -15798,16 +15798,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F178" s="3">
         <v>29</v>
@@ -15872,7 +15872,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>32</v>
@@ -15881,7 +15881,7 @@
         <v>48</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F179" s="3">
         <v>30</v>
@@ -15946,7 +15946,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>32</v>
@@ -16020,10 +16020,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>44</v>
@@ -16094,7 +16094,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>32</v>
@@ -16168,13 +16168,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>45</v>
@@ -16242,7 +16242,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>32</v>
@@ -16316,7 +16316,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>32</v>
@@ -16390,7 +16390,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>32</v>
@@ -16464,7 +16464,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>32</v>
@@ -16538,16 +16538,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F188" s="3">
         <v>26</v>
@@ -16612,13 +16612,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>27</v>
@@ -16686,7 +16686,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>65</v>
@@ -16695,7 +16695,7 @@
         <v>44</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F190" s="3">
         <v>29</v>
@@ -16760,13 +16760,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C191" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="C191" s="3" t="s">
-        <v>275</v>
-      </c>
       <c r="D191" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>52</v>
@@ -16834,7 +16834,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>32</v>
@@ -16843,7 +16843,7 @@
         <v>44</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F192" s="3">
         <v>31</v>
@@ -16908,16 +16908,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F193" s="3">
         <v>37</v>
@@ -16980,7 +16980,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>32</v>
@@ -16989,7 +16989,7 @@
         <v>44</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F194" s="3">
         <v>24</v>
@@ -17054,7 +17054,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>32</v>
@@ -17063,7 +17063,7 @@
         <v>56</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F195" s="3">
         <v>29</v>
@@ -17128,7 +17128,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>32</v>
@@ -17137,7 +17137,7 @@
         <v>44</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F196" s="3">
         <v>26</v>
@@ -17202,7 +17202,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>32</v>
@@ -17211,7 +17211,7 @@
         <v>44</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F197" s="3">
         <v>27</v>
@@ -17276,7 +17276,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>32</v>
@@ -17285,7 +17285,7 @@
         <v>26</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F198" s="3">
         <v>23</v>
@@ -17348,13 +17348,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E199" s="3" t="s">
         <v>49</v>
@@ -17422,10 +17422,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D200" s="3" t="s">
         <v>44</v>
@@ -17496,7 +17496,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>32</v>
@@ -17505,7 +17505,7 @@
         <v>41</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F201" s="3">
         <v>31</v>
@@ -17570,7 +17570,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>32</v>
@@ -17644,7 +17644,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>32</v>
@@ -17718,7 +17718,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>32</v>
@@ -17727,7 +17727,7 @@
         <v>44</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F204" s="3">
         <v>31</v>
@@ -17792,7 +17792,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>32</v>
@@ -17866,7 +17866,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>32</v>
@@ -17940,7 +17940,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>32</v>
@@ -18014,7 +18014,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>32</v>
@@ -18023,7 +18023,7 @@
         <v>44</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F208" s="3">
         <v>29</v>
@@ -18088,16 +18088,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C209" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C209" s="3" t="s">
-        <v>294</v>
-      </c>
       <c r="D209" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F209" s="3">
         <v>25</v>
@@ -18162,7 +18162,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>32</v>
@@ -18236,7 +18236,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>32</v>
@@ -18245,7 +18245,7 @@
         <v>56</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F211" s="3">
         <v>22</v>
@@ -18310,16 +18310,16 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F212" s="3">
         <v>22</v>
@@ -18384,7 +18384,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>32</v>
@@ -18393,7 +18393,7 @@
         <v>44</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F213" s="3">
         <v>20</v>
@@ -18458,7 +18458,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>32</v>
@@ -18467,7 +18467,7 @@
         <v>26</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F214" s="3">
         <v>25</v>
@@ -18530,10 +18530,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>56</v>
@@ -18604,7 +18604,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>32</v>
@@ -18613,7 +18613,7 @@
         <v>44</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F216" s="3">
         <v>31</v>
@@ -18678,7 +18678,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>32</v>
@@ -18687,7 +18687,7 @@
         <v>26</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F217" s="3">
         <v>30</v>
@@ -18750,7 +18750,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>32</v>
@@ -18759,7 +18759,7 @@
         <v>66</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F218" s="3">
         <v>38</v>
@@ -18824,16 +18824,16 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D219" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F219" s="3">
         <v>26</v>
@@ -18898,7 +18898,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>32</v>
@@ -18907,7 +18907,7 @@
         <v>66</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F220" s="3">
         <v>24</v>
@@ -18972,7 +18972,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>32</v>
@@ -19046,7 +19046,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>32</v>
@@ -19120,10 +19120,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D223" s="3" t="s">
         <v>66</v>
@@ -19194,7 +19194,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>32</v>
@@ -19268,13 +19268,13 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D225" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E225" s="3" t="s">
         <v>35</v>
@@ -19342,7 +19342,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>32</v>
@@ -19416,7 +19416,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>65</v>
@@ -19490,7 +19490,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>32</v>
@@ -19499,7 +19499,7 @@
         <v>41</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F228" s="3">
         <v>29</v>
@@ -19564,7 +19564,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>32</v>
@@ -19638,7 +19638,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>32</v>
@@ -19647,7 +19647,7 @@
         <v>44</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F230" s="3">
         <v>23</v>
@@ -19712,7 +19712,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>32</v>
@@ -19786,16 +19786,16 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D232" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F232" s="3">
         <v>17</v>
@@ -19860,16 +19860,16 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F233" s="3">
         <v>27</v>
@@ -19934,13 +19934,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E234" s="3" t="s">
         <v>37</v>
@@ -20008,10 +20008,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D235" s="3" t="s">
         <v>44</v>
@@ -20082,7 +20082,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>32</v>
@@ -20156,7 +20156,7 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>68</v>
@@ -20165,7 +20165,7 @@
         <v>41</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F237" s="3">
         <v>31</v>
@@ -20230,10 +20230,10 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D238" s="3" t="s">
         <v>66</v>
@@ -20304,16 +20304,16 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D239" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F239" s="3">
         <v>24</v>
@@ -20378,7 +20378,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>32</v>
@@ -20387,7 +20387,7 @@
         <v>41</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F240" s="3">
         <v>23</v>
@@ -20452,7 +20452,7 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>32</v>
@@ -20461,7 +20461,7 @@
         <v>41</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F241" s="3">
         <v>32</v>
@@ -20526,7 +20526,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>32</v>
@@ -20598,7 +20598,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>32</v>
@@ -20607,7 +20607,7 @@
         <v>56</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F243" s="3">
         <v>35</v>
@@ -20672,13 +20672,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D244" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E244" s="3" t="s">
         <v>45</v>
@@ -20746,7 +20746,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>32</v>
@@ -20820,16 +20820,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D246" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F246" s="3">
         <v>25</v>
@@ -20894,7 +20894,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>32</v>
@@ -20903,7 +20903,7 @@
         <v>56</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F247" s="3">
         <v>27</v>
@@ -20968,7 +20968,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>32</v>
@@ -21042,7 +21042,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>32</v>
@@ -21051,7 +21051,7 @@
         <v>41</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F249" s="3">
         <v>29</v>
@@ -21116,16 +21116,16 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F250" s="3">
         <v>25</v>
@@ -21190,7 +21190,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>32</v>
@@ -21199,7 +21199,7 @@
         <v>41</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F251" s="3">
         <v>21</v>
@@ -21264,7 +21264,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>32</v>
@@ -21338,7 +21338,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>32</v>
@@ -21412,7 +21412,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>32</v>
@@ -21486,7 +21486,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>32</v>
@@ -21560,16 +21560,16 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D256" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F256" s="3">
         <v>28</v>
@@ -21634,13 +21634,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D257" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E257" s="3" t="s">
         <v>42</v>
@@ -21708,13 +21708,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C258" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C258" s="3" t="s">
-        <v>344</v>
-      </c>
       <c r="D258" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E258" s="3" t="s">
         <v>39</v>
@@ -21782,13 +21782,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D259" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E259" s="3" t="s">
         <v>30</v>
@@ -21856,7 +21856,7 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>32</v>
@@ -21865,7 +21865,7 @@
         <v>41</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F260" s="3">
         <v>32</v>
@@ -21930,13 +21930,13 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D261" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E261" s="3" t="s">
         <v>37</v>
@@ -22004,7 +22004,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>32</v>
@@ -22078,7 +22078,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>32</v>
@@ -22087,7 +22087,7 @@
         <v>44</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F263" s="3">
         <v>23</v>
@@ -22152,10 +22152,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>41</v>
@@ -22226,16 +22226,16 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D265" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F265" s="3">
         <v>22</v>
@@ -22300,10 +22300,10 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>44</v>
@@ -22374,16 +22374,16 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F267" s="3">
         <v>33</v>
@@ -22448,10 +22448,10 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C268" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="C268" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D268" s="3" t="s">
         <v>56</v>
@@ -22522,13 +22522,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D269" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E269" s="3" t="s">
         <v>33</v>
@@ -22596,7 +22596,7 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>32</v>
@@ -22605,7 +22605,7 @@
         <v>44</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F270" s="3">
         <v>25</v>
@@ -22670,16 +22670,16 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C271" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="C271" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F271" s="3">
         <v>24</v>
@@ -22744,7 +22744,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>32</v>
@@ -22753,7 +22753,7 @@
         <v>66</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F272" s="3">
         <v>39</v>
@@ -22818,7 +22818,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>32</v>
@@ -22892,7 +22892,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>32</v>
@@ -22901,7 +22901,7 @@
         <v>66</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F274" s="3">
         <v>28</v>
@@ -22966,7 +22966,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>32</v>
@@ -22975,7 +22975,7 @@
         <v>44</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F275" s="3">
         <v>25</v>
@@ -23040,7 +23040,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>32</v>
@@ -23049,7 +23049,7 @@
         <v>48</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F276" s="3">
         <v>26</v>
@@ -23114,7 +23114,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>32</v>
@@ -23188,7 +23188,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>47</v>
@@ -23197,7 +23197,7 @@
         <v>56</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F278" s="3">
         <v>29</v>
@@ -23262,16 +23262,16 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C279" s="3" t="s">
         <v>367</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>368</v>
       </c>
       <c r="D279" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F279" s="3">
         <v>19</v>
@@ -23336,16 +23336,16 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D280" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F280" s="3">
         <v>26</v>
@@ -23410,7 +23410,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>32</v>
@@ -23419,7 +23419,7 @@
         <v>41</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F281" s="3">
         <v>25</v>
@@ -23484,7 +23484,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>32</v>
@@ -23558,7 +23558,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>65</v>
@@ -23632,16 +23632,16 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D284" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F284" s="3">
         <v>28</v>
@@ -23706,16 +23706,16 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C285" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C285" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="D285" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F285" s="3">
         <v>24</v>
@@ -23780,16 +23780,16 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D286" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F286" s="3">
         <v>27</v>
@@ -23854,16 +23854,16 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D287" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F287" s="3">
         <v>27</v>
@@ -23928,7 +23928,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>32</v>
@@ -24002,7 +24002,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>68</v>
@@ -24076,7 +24076,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>32</v>
@@ -24150,7 +24150,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>32</v>
@@ -24159,7 +24159,7 @@
         <v>44</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F291" s="3">
         <v>30</v>
@@ -24224,10 +24224,10 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D292" s="3" t="s">
         <v>56</v>
@@ -24298,16 +24298,16 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D293" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F293" s="3">
         <v>23</v>
@@ -24372,10 +24372,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C294" s="3" t="s">
         <v>383</v>
-      </c>
-      <c r="C294" s="3" t="s">
-        <v>384</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>44</v>
@@ -24446,13 +24446,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D295" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E295" s="3" t="s">
         <v>39</v>
@@ -24520,7 +24520,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>32</v>
@@ -24529,7 +24529,7 @@
         <v>26</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F296" s="3">
         <v>34</v>
@@ -24592,7 +24592,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>32</v>
@@ -24601,7 +24601,7 @@
         <v>41</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F297" s="3">
         <v>23</v>
@@ -24666,16 +24666,16 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D298" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F298" s="3">
         <v>27</v>
@@ -24740,7 +24740,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>32</v>
@@ -24814,10 +24814,10 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>44</v>
@@ -24888,10 +24888,10 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D301" s="3" t="s">
         <v>44</v>
@@ -24962,7 +24962,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>32</v>
@@ -25036,10 +25036,10 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D303" s="3" t="s">
         <v>44</v>
@@ -25110,10 +25110,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>66</v>
@@ -25184,10 +25184,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D305" s="3" t="s">
         <v>66</v>
@@ -25258,7 +25258,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>51</v>
@@ -25267,7 +25267,7 @@
         <v>41</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F306" s="3">
         <v>27</v>
@@ -25332,13 +25332,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E307" s="3" t="s">
         <v>58</v>
@@ -25406,13 +25406,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E308" s="3" t="s">
         <v>39</v>
@@ -25480,7 +25480,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>32</v>
@@ -25489,7 +25489,7 @@
         <v>66</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F309" s="3">
         <v>28</v>
@@ -25554,7 +25554,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>65</v>
@@ -25628,16 +25628,16 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F311" s="3">
         <v>26</v>
@@ -25702,16 +25702,16 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C312" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="C312" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="D312" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E312" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F312" s="3">
         <v>29</v>
@@ -25776,10 +25776,10 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>48</v>
@@ -25850,7 +25850,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>68</v>
@@ -25859,7 +25859,7 @@
         <v>56</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F314" s="3">
         <v>33</v>
@@ -25924,7 +25924,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>32</v>
@@ -25998,10 +25998,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>44</v>
@@ -26072,7 +26072,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>51</v>
@@ -26081,7 +26081,7 @@
         <v>48</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F317" s="3">
         <v>28</v>
@@ -26146,7 +26146,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>32</v>
@@ -26220,7 +26220,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>25</v>
@@ -26294,7 +26294,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>65</v>
@@ -26303,7 +26303,7 @@
         <v>56</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F320" s="3">
         <v>29</v>
@@ -26368,7 +26368,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>32</v>
@@ -26377,7 +26377,7 @@
         <v>66</v>
       </c>
       <c r="E321" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F321" s="3">
         <v>26</v>
@@ -26442,10 +26442,10 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>56</v>
@@ -26516,7 +26516,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>32</v>
@@ -26590,16 +26590,16 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D324" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E324" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F324" s="3">
         <v>25</v>
@@ -26664,7 +26664,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>32</v>
@@ -26738,7 +26738,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>32</v>
@@ -26747,7 +26747,7 @@
         <v>66</v>
       </c>
       <c r="E326" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F326" s="3">
         <v>23</v>
@@ -26812,7 +26812,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>32</v>
@@ -26821,7 +26821,7 @@
         <v>41</v>
       </c>
       <c r="E327" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F327" s="3">
         <v>32</v>
@@ -26886,13 +26886,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D328" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E328" s="3" t="s">
         <v>49</v>
@@ -26960,13 +26960,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D329" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E329" s="3" t="s">
         <v>52</v>
@@ -27034,16 +27034,16 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C330" s="3" t="s">
         <v>421</v>
-      </c>
-      <c r="C330" s="3" t="s">
-        <v>422</v>
       </c>
       <c r="D330" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E330" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F330" s="3">
         <v>24</v>
@@ -27108,7 +27108,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>32</v>
@@ -27182,16 +27182,16 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D332" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E332" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F332" s="3">
         <v>32</v>
@@ -27256,7 +27256,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>32</v>
@@ -27330,7 +27330,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>32</v>
@@ -27339,7 +27339,7 @@
         <v>44</v>
       </c>
       <c r="E334" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F334" s="3">
         <v>23</v>
@@ -27404,7 +27404,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>32</v>
@@ -27413,7 +27413,7 @@
         <v>44</v>
       </c>
       <c r="E335" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F335" s="3">
         <v>31</v>
@@ -27478,7 +27478,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>51</v>
@@ -27552,13 +27552,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D337" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E337" s="3" t="s">
         <v>27</v>
@@ -27626,7 +27626,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>32</v>
@@ -27700,10 +27700,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D339" s="3" t="s">
         <v>44</v>
@@ -27774,7 +27774,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>47</v>
@@ -27783,7 +27783,7 @@
         <v>26</v>
       </c>
       <c r="E340" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F340" s="3">
         <v>31</v>
@@ -27846,7 +27846,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>32</v>
@@ -27918,7 +27918,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>32</v>
@@ -27992,10 +27992,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>56</v>
@@ -28066,13 +28066,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D344" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E344" s="3" t="s">
         <v>45</v>
@@ -28140,16 +28140,16 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E345" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F345" s="3">
         <v>27</v>
@@ -28214,16 +28214,16 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E346" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F346" s="3">
         <v>20</v>
@@ -28288,7 +28288,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>51</v>
@@ -28297,7 +28297,7 @@
         <v>66</v>
       </c>
       <c r="E347" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F347" s="3">
         <v>27</v>
@@ -28362,7 +28362,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>32</v>
@@ -28436,16 +28436,16 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E349" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F349" s="3">
         <v>24</v>
@@ -28510,7 +28510,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>32</v>
@@ -28584,7 +28584,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>32</v>
@@ -28658,7 +28658,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>32</v>
@@ -28667,7 +28667,7 @@
         <v>44</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F352" s="3">
         <v>33</v>
@@ -28732,16 +28732,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F353" s="3">
         <v>25</v>
@@ -28806,7 +28806,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>32</v>
@@ -28815,7 +28815,7 @@
         <v>44</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F354" s="3">
         <v>32</v>
@@ -28880,7 +28880,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>32</v>
@@ -28954,7 +28954,7 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>32</v>
@@ -29028,7 +29028,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>32</v>
@@ -29102,16 +29102,16 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D358" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E358" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F358" s="3">
         <v>28</v>
@@ -29176,7 +29176,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>32</v>
@@ -29185,7 +29185,7 @@
         <v>41</v>
       </c>
       <c r="E359" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F359" s="3">
         <v>30</v>
@@ -29250,13 +29250,13 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D360" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E360" s="3" t="s">
         <v>42</v>
@@ -29324,7 +29324,7 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>32</v>
@@ -29398,13 +29398,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D362" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E362" s="3" t="s">
         <v>58</v>
@@ -29472,16 +29472,16 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C363" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C363" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="D363" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E363" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F363" s="3">
         <v>26</v>
@@ -29546,10 +29546,10 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>56</v>
@@ -29620,10 +29620,10 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C365" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="C365" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>41</v>
@@ -29694,16 +29694,16 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D366" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E366" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F366" s="3">
         <v>26</v>
@@ -29768,7 +29768,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>32</v>
@@ -29777,7 +29777,7 @@
         <v>41</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F367" s="3">
         <v>27</v>
@@ -29842,7 +29842,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>32</v>
@@ -29851,7 +29851,7 @@
         <v>56</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F368" s="3">
         <v>31</v>
@@ -29916,16 +29916,16 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D369" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E369" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F369" s="3">
         <v>27</v>
@@ -29990,7 +29990,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>68</v>
@@ -30064,7 +30064,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>65</v>
@@ -30073,7 +30073,7 @@
         <v>44</v>
       </c>
       <c r="E371" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F371" s="3">
         <v>20</v>
@@ -30138,7 +30138,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>32</v>
@@ -30212,7 +30212,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>65</v>
@@ -30286,7 +30286,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>32</v>
@@ -30295,7 +30295,7 @@
         <v>44</v>
       </c>
       <c r="E374" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F374" s="3">
         <v>22</v>
@@ -30360,7 +30360,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>32</v>
@@ -30369,7 +30369,7 @@
         <v>44</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F375" s="3">
         <v>30</v>
@@ -30434,7 +30434,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>32</v>
@@ -30443,7 +30443,7 @@
         <v>26</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F376" s="3">
         <v>23</v>
@@ -30506,7 +30506,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>65</v>
@@ -30515,7 +30515,7 @@
         <v>26</v>
       </c>
       <c r="E377" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F377" s="3">
         <v>28</v>
@@ -30578,7 +30578,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>32</v>
@@ -30587,7 +30587,7 @@
         <v>44</v>
       </c>
       <c r="E378" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F378" s="3">
         <v>28</v>
@@ -30652,10 +30652,10 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>66</v>
@@ -30726,10 +30726,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>56</v>
@@ -30800,16 +30800,16 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F381" s="3">
         <v>30</v>
@@ -30874,10 +30874,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>41</v>
@@ -30948,16 +30948,16 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F383" s="3">
         <v>21</v>
@@ -31010,13 +31010,13 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E384" s="3" t="s">
         <v>49</v>
@@ -31084,7 +31084,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>47</v>
@@ -31093,7 +31093,7 @@
         <v>44</v>
       </c>
       <c r="E385" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F385" s="3">
         <v>25</v>
@@ -31158,7 +31158,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>32</v>
@@ -31167,7 +31167,7 @@
         <v>44</v>
       </c>
       <c r="E386" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F386" s="3">
         <v>20</v>
@@ -31232,7 +31232,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>32</v>
@@ -31306,7 +31306,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>68</v>
@@ -31380,7 +31380,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>32</v>
@@ -31454,10 +31454,10 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>26</v>
@@ -31526,10 +31526,10 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C391" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C391" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>41</v>
@@ -31600,13 +31600,13 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>68</v>
       </c>
       <c r="D392" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E392" s="3" t="s">
         <v>33</v>
@@ -31674,13 +31674,13 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C393" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C393" s="3" t="s">
-        <v>488</v>
-      </c>
       <c r="D393" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E393" s="3" t="s">
         <v>30</v>
@@ -31748,10 +31748,10 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="C394" s="3" t="s">
         <v>489</v>
-      </c>
-      <c r="C394" s="3" t="s">
-        <v>490</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>44</v>
@@ -31822,13 +31822,13 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D395" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E395" s="3" t="s">
         <v>42</v>
@@ -31896,7 +31896,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>32</v>
@@ -31905,7 +31905,7 @@
         <v>66</v>
       </c>
       <c r="E396" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F396" s="3">
         <v>27</v>
@@ -31970,10 +31970,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D397" s="3" t="s">
         <v>44</v>
@@ -32044,7 +32044,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>32</v>
@@ -32118,7 +32118,7 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>32</v>
@@ -32127,7 +32127,7 @@
         <v>44</v>
       </c>
       <c r="E399" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F399" s="3">
         <v>30</v>
@@ -32192,7 +32192,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>32</v>
@@ -32201,7 +32201,7 @@
         <v>41</v>
       </c>
       <c r="E400" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F400" s="3">
         <v>21</v>
@@ -32266,7 +32266,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>32</v>
@@ -32275,7 +32275,7 @@
         <v>44</v>
       </c>
       <c r="E401" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F401" s="3">
         <v>30</v>
@@ -32340,13 +32340,13 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D402" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E402" s="3" t="s">
         <v>42</v>
@@ -32414,7 +32414,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>32</v>
@@ -32423,7 +32423,7 @@
         <v>44</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F403" s="3">
         <v>27</v>
@@ -32488,7 +32488,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>32</v>
@@ -32562,16 +32562,16 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F405" s="3">
         <v>20</v>
@@ -32636,7 +32636,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>32</v>
@@ -32710,13 +32710,13 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D407" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E407" s="3" t="s">
         <v>35</v>
@@ -32784,7 +32784,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>32</v>
@@ -32793,7 +32793,7 @@
         <v>66</v>
       </c>
       <c r="E408" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F408" s="3">
         <v>20</v>
@@ -32858,7 +32858,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>25</v>
@@ -32932,7 +32932,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>32</v>
@@ -32941,7 +32941,7 @@
         <v>66</v>
       </c>
       <c r="E410" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F410" s="3">
         <v>26</v>
@@ -33006,13 +33006,13 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D411" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E411" s="3" t="s">
         <v>30</v>
@@ -33080,10 +33080,10 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>44</v>
@@ -33154,10 +33154,10 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C413" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="C413" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="D413" s="3" t="s">
         <v>56</v>
@@ -33228,16 +33228,16 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D414" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E414" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F414" s="3">
         <v>22</v>
@@ -33302,16 +33302,16 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D415" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E415" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F415" s="3">
         <v>31</v>
@@ -33376,13 +33376,13 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D416" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E416" s="3" t="s">
         <v>33</v>
@@ -33450,16 +33450,16 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D417" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E417" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F417" s="3">
         <v>23</v>
@@ -33524,16 +33524,16 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D418" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E418" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F418" s="3">
         <v>30</v>
@@ -33598,7 +33598,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>65</v>
@@ -33607,7 +33607,7 @@
         <v>41</v>
       </c>
       <c r="E419" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F419" s="3">
         <v>28</v>
@@ -33672,7 +33672,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>32</v>
@@ -33746,10 +33746,10 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D421" s="3" t="s">
         <v>44</v>
@@ -33820,16 +33820,16 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D422" s="3" t="s">
         <v>66</v>
       </c>
       <c r="E422" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F422" s="3">
         <v>26</v>
@@ -33894,13 +33894,13 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D423" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E423" s="3" t="s">
         <v>45</v>
@@ -33968,16 +33968,16 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D424" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E424" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F424" s="3">
         <v>26</v>
@@ -34042,7 +34042,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>32</v>
@@ -34051,7 +34051,7 @@
         <v>44</v>
       </c>
       <c r="E425" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F425" s="3">
         <v>29</v>
@@ -34116,7 +34116,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>32</v>
@@ -34125,7 +34125,7 @@
         <v>26</v>
       </c>
       <c r="E426" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F426" s="3">
         <v>24</v>
@@ -34188,13 +34188,13 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>35</v>
@@ -34262,16 +34262,16 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C428" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="C428" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E428" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F428" s="3">
         <v>31</v>
@@ -34334,7 +34334,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>32</v>
@@ -34408,7 +34408,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>32</v>
@@ -34417,7 +34417,7 @@
         <v>48</v>
       </c>
       <c r="E430" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F430" s="3">
         <v>26</v>
@@ -34482,16 +34482,16 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C431" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="C431" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E431" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F431" s="3">
         <v>27</v>
@@ -34556,7 +34556,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>32</v>
@@ -34630,7 +34630,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>32</v>
@@ -34704,7 +34704,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>32</v>
@@ -34713,7 +34713,7 @@
         <v>41</v>
       </c>
       <c r="E434" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F434" s="3">
         <v>31</v>
@@ -34778,13 +34778,13 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D435" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E435" s="3" t="s">
         <v>42</v>
@@ -34852,7 +34852,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>32</v>
@@ -34861,7 +34861,7 @@
         <v>66</v>
       </c>
       <c r="E436" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F436" s="3">
         <v>29</v>
@@ -34926,7 +34926,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>32</v>
@@ -34935,7 +34935,7 @@
         <v>66</v>
       </c>
       <c r="E437" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F437" s="3">
         <v>21</v>
@@ -35000,7 +35000,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>32</v>
@@ -35074,7 +35074,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>51</v>
@@ -35083,7 +35083,7 @@
         <v>56</v>
       </c>
       <c r="E439" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F439" s="3">
         <v>22</v>
@@ -35148,16 +35148,16 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E440" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F440" s="3">
         <v>22</v>
@@ -35222,7 +35222,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>32</v>
@@ -35231,7 +35231,7 @@
         <v>66</v>
       </c>
       <c r="E441" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F441" s="3">
         <v>24</v>
@@ -35296,7 +35296,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>32</v>
@@ -35370,7 +35370,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>65</v>
@@ -35379,7 +35379,7 @@
         <v>41</v>
       </c>
       <c r="E443" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F443" s="3">
         <v>34</v>
@@ -35444,7 +35444,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>32</v>
@@ -35453,7 +35453,7 @@
         <v>44</v>
       </c>
       <c r="E444" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F444" s="3">
         <v>19</v>
@@ -35518,7 +35518,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>32</v>
@@ -35527,7 +35527,7 @@
         <v>26</v>
       </c>
       <c r="E445" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F445" s="3">
         <v>26</v>
@@ -35590,16 +35590,16 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D446" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E446" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F446" s="3">
         <v>31</v>
@@ -35664,13 +35664,13 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D447" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E447" s="3" t="s">
         <v>39</v>
@@ -35738,16 +35738,16 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D448" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E448" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F448" s="3">
         <v>20</v>
@@ -35812,7 +35812,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>32</v>
@@ -35886,7 +35886,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>68</v>
@@ -35895,7 +35895,7 @@
         <v>44</v>
       </c>
       <c r="E450" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F450" s="3">
         <v>29</v>
@@ -35960,7 +35960,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>32</v>
@@ -36034,7 +36034,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>32</v>
@@ -36108,7 +36108,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>65</v>
@@ -36117,7 +36117,7 @@
         <v>56</v>
       </c>
       <c r="E453" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F453" s="3">
         <v>29</v>
@@ -36182,13 +36182,13 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>39</v>
@@ -36256,13 +36256,13 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D455" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E455" s="3" t="s">
         <v>30</v>
@@ -36330,7 +36330,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>32</v>
@@ -36402,13 +36402,13 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D457" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E457" s="3" t="s">
         <v>58</v>
@@ -36476,7 +36476,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>32</v>
@@ -36550,16 +36550,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D459" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F459" s="3">
         <v>40</v>
@@ -36624,7 +36624,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>32</v>
@@ -36698,16 +36698,16 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D461" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E461" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F461" s="3">
         <v>23</v>
@@ -36772,7 +36772,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>32</v>
@@ -36844,7 +36844,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>32</v>
@@ -36853,7 +36853,7 @@
         <v>44</v>
       </c>
       <c r="E463" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F463" s="3">
         <v>19</v>
@@ -36918,7 +36918,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>68</v>
@@ -36927,7 +36927,7 @@
         <v>41</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F464" s="3">
         <v>25</v>
@@ -36992,13 +36992,13 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D465" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E465" s="3" t="s">
         <v>35</v>
@@ -37066,7 +37066,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>32</v>
@@ -37075,7 +37075,7 @@
         <v>44</v>
       </c>
       <c r="E466" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F466" s="3">
         <v>20</v>
@@ -37140,7 +37140,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>32</v>
@@ -37149,7 +37149,7 @@
         <v>44</v>
       </c>
       <c r="E467" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F467" s="3">
         <v>29</v>
@@ -37214,7 +37214,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>32</v>
@@ -37223,7 +37223,7 @@
         <v>56</v>
       </c>
       <c r="E468" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F468" s="3">
         <v>20</v>
@@ -37276,7 +37276,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>32</v>
@@ -37285,7 +37285,7 @@
         <v>41</v>
       </c>
       <c r="E469" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F469" s="3">
         <v>21</v>
@@ -37350,13 +37350,13 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C470" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C470" s="3" t="s">
-        <v>564</v>
-      </c>
       <c r="D470" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E470" s="3" t="s">
         <v>27</v>
@@ -37424,7 +37424,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>32</v>
@@ -37498,7 +37498,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>32</v>
@@ -37572,7 +37572,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>32</v>
@@ -37646,10 +37646,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D474" s="3" t="s">
         <v>66</v>
@@ -37720,13 +37720,13 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>65</v>
       </c>
       <c r="D475" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E475" s="3" t="s">
         <v>45</v>
@@ -37794,10 +37794,10 @@
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C476" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="C476" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="D476" s="3" t="s">
         <v>66</v>
@@ -37868,16 +37868,16 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E477" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F477" s="3">
         <v>24</v>
@@ -37942,10 +37942,10 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D478" s="3" t="s">
         <v>41</v>
@@ -38016,7 +38016,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>32</v>
@@ -38088,13 +38088,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D480" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E480" s="3" t="s">
         <v>45</v>
@@ -38160,7 +38160,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>32</v>
@@ -38169,7 +38169,7 @@
         <v>26</v>
       </c>
       <c r="E481" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F481" s="3">
         <v>41</v>
@@ -38232,10 +38232,10 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>44</v>
@@ -38306,16 +38306,16 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D483" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E483" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F483" s="3">
         <v>31</v>
@@ -38380,16 +38380,16 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D484" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E484" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F484" s="3">
         <v>23</v>
@@ -38454,7 +38454,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>65</v>
@@ -38526,7 +38526,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>32</v>
@@ -38535,7 +38535,7 @@
         <v>48</v>
       </c>
       <c r="E486" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F486" s="3">
         <v>28</v>
@@ -38600,7 +38600,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>32</v>
@@ -38674,7 +38674,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>32</v>
@@ -38748,7 +38748,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>65</v>
@@ -38757,7 +38757,7 @@
         <v>66</v>
       </c>
       <c r="E489" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F489" s="3">
         <v>31</v>
@@ -38822,7 +38822,7 @@
         <v>489</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C490" s="3" t="s">
         <v>51</v>
@@ -38896,7 +38896,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>32</v>
@@ -38905,7 +38905,7 @@
         <v>44</v>
       </c>
       <c r="E491" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F491" s="3">
         <v>20</v>
@@ -38970,7 +38970,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>32</v>
@@ -39044,7 +39044,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>32</v>
@@ -39053,7 +39053,7 @@
         <v>56</v>
       </c>
       <c r="E493" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F493" s="3">
         <v>24</v>
@@ -39118,16 +39118,16 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C494" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="C494" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="D494" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E494" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F494" s="3">
         <v>20</v>
@@ -39190,13 +39190,13 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D495" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E495" s="3" t="s">
         <v>58</v>
@@ -39264,7 +39264,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>32</v>
@@ -39273,7 +39273,7 @@
         <v>44</v>
       </c>
       <c r="E496" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F496" s="3">
         <v>22</v>
@@ -39338,13 +39338,13 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E497" s="3" t="s">
         <v>27</v>
@@ -39412,7 +39412,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>32</v>
@@ -39486,13 +39486,13 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D499" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E499" s="3" t="s">
         <v>27</v>
@@ -39560,7 +39560,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C500" s="3" t="s">
         <v>32</v>
